--- a/benchmark_result.xlsx
+++ b/benchmark_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeware\Projects\Github\benchmark-reactive-service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEEFC4C-21D6-41B7-8F6D-5AAE5C7AD227}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF8820-CB21-45FA-B808-31CFADE38237}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9924" xr2:uid="{5E18E4FC-157C-4D9F-B5E6-144CB3585FCA}"/>
   </bookViews>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{D64970AB-CFA7-40F6-B792-18F1A2F182B0}">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{D64970AB-CFA7-40F6-B792-18F1A2F182B0}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Max</t>
   </si>
@@ -111,15 +111,22 @@
   <si>
     <t>Users</t>
   </si>
+  <si>
+    <t>taille du threadpool pour le mode synchrone</t>
+  </si>
+  <si>
+    <t>taille de la file d'attente max pour le mode synchrone</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +188,11 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -214,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -369,34 +381,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -415,14 +405,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,34 +445,23 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -520,7 +520,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> d'exécution par nombre de requêtes simultanées (0 à 1000)</a:t>
+              <a:t> d'exécution par nombre de requêtes simultanées (1 à 1000)</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -574,14 +574,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                    <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$A$3:$A$8</c:f>
+              <c:f>Data!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -592,12 +592,15 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -608,31 +611,34 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$C$3:$C$10</c15:sqref>
+                    <c15:sqref>Data!$C$3:$C$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$C$3:$C$8</c:f>
+              <c:f>Data!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>267</c:v>
+                  <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,14 +675,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                    <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$A$3:$A$8</c:f>
+              <c:f>Data!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -687,12 +693,15 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -703,31 +712,34 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$D$3:$D$10</c15:sqref>
+                    <c15:sqref>Data!$D$3:$D$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$D$3:$D$8</c:f>
+              <c:f>Data!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>552</c:v>
+                  <c:v>2538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,14 +776,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                    <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$A$3:$A$8</c:f>
+              <c:f>Data!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -782,12 +794,15 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -798,31 +813,34 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$I$3:$I$10</c15:sqref>
+                    <c15:sqref>Data!$I$3:$I$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$I$3:$I$8</c:f>
+              <c:f>Data!$I$3:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>384</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>640</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1094</c:v>
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,14 +877,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                    <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$A$3:$A$8</c:f>
+              <c:f>Data!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -877,12 +895,15 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -893,31 +914,34 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$J$3:$J$10</c15:sqref>
+                    <c15:sqref>Data!$J$3:$J$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$J$3:$J$8</c:f>
+              <c:f>Data!$J$3:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>571</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>891</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1632</c:v>
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,16 +998,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$A$3:$A$8</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -994,13 +1018,19 @@
                         <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>100</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>500</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="6">
                         <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1010,33 +1040,36 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$E$3:$E$10</c15:sqref>
+                          <c15:sqref>Data!$E$3:$E$13</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$E$3:$E$8</c15:sqref>
+                          <c15:sqref>Data!$E$3:$E$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>13</c:v>
+                        <c:v>102</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>16</c:v>
+                        <c:v>111</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>20</c:v>
+                        <c:v>117</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>67</c:v>
+                        <c:v>324</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>294</c:v>
+                        <c:v>553</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>585</c:v>
+                        <c:v>2564</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5119</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1055,7 +1088,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$F$1:$F$2</c15:sqref>
@@ -1081,16 +1114,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$A$3:$A$8</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1101,13 +1134,19 @@
                         <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>100</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>500</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="6">
                         <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1117,16 +1156,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$F$3:$F$10</c15:sqref>
+                          <c15:sqref>Data!$F$3:$F$13</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$F$3:$F$8</c15:sqref>
+                          <c15:sqref>Data!$F$3:$F$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -1143,13 +1182,16 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001F-DCF3-4463-B49D-F094716B3587}"/>
                   </c:ext>
@@ -1162,7 +1204,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$K$1:$K$2</c15:sqref>
@@ -1188,16 +1230,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$A$3:$A$8</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1208,13 +1250,19 @@
                         <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>100</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>500</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="6">
                         <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1224,39 +1272,42 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$K$3:$K$10</c15:sqref>
+                          <c15:sqref>Data!$K$3:$K$13</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$K$3:$K$8</c15:sqref>
+                          <c15:sqref>Data!$K$3:$K$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>12</c:v>
+                        <c:v>104</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>70</c:v>
+                        <c:v>109</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>180</c:v>
+                        <c:v>117</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>572</c:v>
+                        <c:v>134</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>917</c:v>
+                        <c:v>174</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1717</c:v>
+                        <c:v>518</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>817</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000022-DCF3-4463-B49D-F094716B3587}"/>
                   </c:ext>
@@ -1269,7 +1320,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$L$1:$L$2</c15:sqref>
@@ -1295,16 +1346,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$A$3:$A$8</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1315,13 +1366,19 @@
                         <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>100</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="5">
                         <c:v>500</c:v>
                       </c:pt>
-                      <c:pt idx="5">
+                      <c:pt idx="6">
                         <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1331,16 +1388,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$L$3:$L$10</c15:sqref>
+                          <c15:sqref>Data!$L$3:$L$13</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$L$3:$L$8</c15:sqref>
+                          <c15:sqref>Data!$L$3:$L$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="6"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -1357,13 +1414,16 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000023-DCF3-4463-B49D-F094716B3587}"/>
                   </c:ext>
@@ -1582,7 +1642,7 @@
               <a:rPr lang="fr-FR" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Temps d'exécution par nombre de requêtes simultanées (1000 à 5000)</a:t>
+              <a:t>Temps d'exécution par nombre de requêtes simultanées (1 à 10000)</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR">
               <a:effectLst/>
@@ -1630,25 +1690,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                    <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$A$7:$A$10</c:f>
+              <c:f>(Data!$A$3,Data!$A$8:$A$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1658,25 +1730,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$C$3:$C$10</c15:sqref>
+                    <c15:sqref>Data!$C$3:$C$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$C$7:$C$10</c:f>
+              <c:f>(Data!$C$3,Data!$C$8:$C$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>135</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>267</c:v>
+                  <c:v>1307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1703</c:v>
+                  <c:v>2538</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16846</c:v>
+                  <c:v>3847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,25 +1797,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                    <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$A$7:$A$10</c:f>
+              <c:f>(Data!$A$3,Data!$A$8:$A$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1741,25 +1837,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$D$3:$D$10</c15:sqref>
+                    <c15:sqref>Data!$D$3:$D$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$D$7:$D$10</c:f>
+              <c:f>(Data!$D$3,Data!$D$8:$D$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>273</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>552</c:v>
+                  <c:v>2538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2729</c:v>
+                  <c:v>4999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24516</c:v>
+                  <c:v>7697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,25 +1904,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                    <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$A$7:$A$10</c:f>
+              <c:f>(Data!$A$3,Data!$A$8:$A$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,25 +1944,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$I$3:$I$10</c15:sqref>
+                    <c15:sqref>Data!$I$3:$I$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$I$7:$I$10</c:f>
+              <c:f>(Data!$I$3,Data!$I$8:$I$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>640</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1094</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2219</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5858</c:v>
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,25 +2011,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                    <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$A$7:$A$10</c:f>
+              <c:f>(Data!$A$3,Data!$A$8:$A$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,25 +2051,37 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$J$3:$J$10</c15:sqref>
+                    <c15:sqref>Data!$J$3:$J$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$J$7:$J$10</c:f>
+              <c:f>(Data!$J$3,Data!$J$8:$J$14)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>891</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1632</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3357</c:v>
+                  <c:v>802</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8580</c:v>
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2391</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3738</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,27 +2138,39 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$A$7:$A$10</c15:sqref>
+                          <c15:sqref>(Data!$A$3,Data!$A$8:$A$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>500</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>1000</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>2000</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2012,27 +2180,39 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$E$3:$E$10</c15:sqref>
+                          <c15:sqref>Data!$E$3:$E$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$E$7:$E$10</c15:sqref>
+                          <c15:sqref>(Data!$E$3,Data!$E$8:$E$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>294</c:v>
+                        <c:v>102</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>585</c:v>
+                        <c:v>2564</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2809</c:v>
+                        <c:v>5119</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>25877</c:v>
+                        <c:v>7779</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>66285</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>71475</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>81077</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>109975</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2051,7 +2231,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$F$1:$F$2</c15:sqref>
@@ -2077,27 +2257,39 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$A$7:$A$10</c15:sqref>
+                          <c15:sqref>(Data!$A$3,Data!$A$8:$A$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>500</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>1000</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>2000</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2107,16 +2299,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$F$3:$F$10</c15:sqref>
+                          <c15:sqref>Data!$F$3:$F$13</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$F$7:$F$10</c15:sqref>
+                          <c15:sqref>(Data!$F$3,Data!$F$8:$F$13)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -2124,16 +2316,25 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2942</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>17583</c:v>
+                        <c:v>353</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1503</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5452</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>17673</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-22DF-4087-B2E0-FA24F5858B25}"/>
                   </c:ext>
@@ -2146,7 +2347,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$K$1:$K$2</c15:sqref>
@@ -2172,27 +2373,39 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$A$7:$A$10</c15:sqref>
+                          <c15:sqref>(Data!$A$3,Data!$A$8:$A$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>500</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>1000</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>2000</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2202,33 +2415,45 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$K$3:$K$10</c15:sqref>
+                          <c15:sqref>Data!$K$3:$K$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$K$7:$K$10</c15:sqref>
+                          <c15:sqref>(Data!$K$3,Data!$K$8:$K$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>917</c:v>
+                        <c:v>104</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1717</c:v>
+                        <c:v>518</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>3457</c:v>
+                        <c:v>817</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>9137</c:v>
+                        <c:v>1193</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1636</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2497</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4223</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9725</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-22DF-4087-B2E0-FA24F5858B25}"/>
                   </c:ext>
@@ -2241,7 +2466,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Data!$L$1:$L$2</c15:sqref>
@@ -2267,27 +2492,39 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$A$7:$A$10</c15:sqref>
+                          <c15:sqref>(Data!$A$3,Data!$A$8:$A$14)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="8"/>
                       <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>500</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="2">
                         <c:v>1000</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
+                        <c:v>1500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>2000</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="5">
+                        <c:v>3000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>5000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2297,16 +2534,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$L$3:$L$10</c15:sqref>
+                          <c15:sqref>Data!$L$3:$L$13</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$L$7:$L$10</c15:sqref>
+                          <c15:sqref>(Data!$L$3,Data!$L$8:$L$13)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -2317,13 +2554,22 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-22DF-4087-B2E0-FA24F5858B25}"/>
                   </c:ext>
@@ -2544,7 +2790,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> d'exécution par nombre de requêtes simultanées (0 à 100)</a:t>
+              <a:t> d'exécution par nombre de requêtes simultanées (1 à 100)</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -2590,14 +2836,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                    <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$A$3:$A$6</c:f>
+              <c:f>Data!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2608,6 +2854,9 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -2618,25 +2867,28 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$C$3:$C$10</c15:sqref>
+                    <c15:sqref>Data!$C$3:$C$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$C$3:$C$6</c:f>
+              <c:f>Data!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2673,14 +2925,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                    <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$A$3:$A$6</c:f>
+              <c:f>Data!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2691,6 +2943,9 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -2701,25 +2956,28 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$D$3:$D$10</c15:sqref>
+                    <c15:sqref>Data!$D$3:$D$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$D$3:$D$6</c:f>
+              <c:f>Data!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,14 +3014,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                    <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$A$3:$A$6</c:f>
+              <c:f>Data!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2774,7 +3032,13 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2784,25 +3048,28 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$I$3:$I$10</c15:sqref>
+                    <c15:sqref>Data!$I$3:$I$13</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$I$3:$I$6</c:f>
+              <c:f>Data!$I$3:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>384</c:v>
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2839,14 +3106,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                    <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$A$3:$A$6</c:f>
+              <c:f>Data!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2857,7 +3124,13 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2867,25 +3140,28 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Data!$J$3:$J$10</c15:sqref>
+                    <c15:sqref>Data!$J$3:$J$13</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Data!$J$3:$J$6</c:f>
+              <c:f>Data!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>571</c:v>
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,16 +3218,16 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$A$3:$A$6</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -2962,7 +3238,13 @@
                         <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2972,27 +3254,30 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$E$3:$E$10</c15:sqref>
+                          <c15:sqref>Data!$E$3:$E$13</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$E$3:$E$6</c15:sqref>
+                          <c15:sqref>Data!$E$3:$E$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>13</c:v>
+                        <c:v>102</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>16</c:v>
+                        <c:v>111</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>20</c:v>
+                        <c:v>117</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>67</c:v>
+                        <c:v>324</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>553</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3037,16 +3322,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$A$3:$A$6</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -3057,7 +3342,13 @@
                         <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3067,16 +3358,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$F$3:$F$10</c15:sqref>
+                          <c15:sqref>Data!$F$3:$F$13</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$F$3:$F$6</c15:sqref>
+                          <c15:sqref>Data!$F$3:$F$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -3087,13 +3378,16 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-E4DF-4B6D-8D1D-105395561514}"/>
                   </c:ext>
@@ -3132,16 +3426,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$A$3:$A$6</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -3152,7 +3446,13 @@
                         <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3162,33 +3462,36 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$K$3:$K$10</c15:sqref>
+                          <c15:sqref>Data!$K$3:$K$13</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$K$3:$K$6</c15:sqref>
+                          <c15:sqref>Data!$K$3:$K$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>12</c:v>
+                        <c:v>104</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>70</c:v>
+                        <c:v>109</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>180</c:v>
+                        <c:v>117</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>572</c:v>
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>174</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-E4DF-4B6D-8D1D-105395561514}"/>
                   </c:ext>
@@ -3227,16 +3530,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$A$3:$A$10</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$14</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$A$3:$A$6</c15:sqref>
+                          <c15:sqref>Data!$A$3:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -3247,7 +3550,13 @@
                         <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10000</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3257,16 +3566,16 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Data!$L$3:$L$10</c15:sqref>
+                          <c15:sqref>Data!$L$3:$L$13</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Data!$L$3:$L$6</c15:sqref>
+                          <c15:sqref>Data!$L$3:$L$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -3277,13 +3586,16 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-E4DF-4B6D-8D1D-105395561514}"/>
                   </c:ext>
@@ -3469,16 +3781,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3666</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>20781</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114503</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>724511</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>43192</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>198038</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98610</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3506,15 +3818,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171143</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>159734</xdr:rowOff>
+      <xdr:colOff>174952</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>775855</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>29746</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>13853</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3544,15 +3856,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180110</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>13854</xdr:rowOff>
+      <xdr:colOff>263237</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>96981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>466574</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>35450</xdr:rowOff>
+      <xdr:colOff>549701</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>118577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3879,10 +4191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B2F317-1DF2-441A-BDF1-310221572C28}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3898,405 +4210,581 @@
     <col min="13" max="16" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
-        <v>13</v>
+      <c r="B3" s="9">
+        <v>102</v>
       </c>
       <c r="C3" s="5">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="D3" s="5">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E3" s="5">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="35">
         <v>1</v>
       </c>
       <c r="H3" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I3" s="5">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="J3" s="5">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="K3" s="5">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="L3" s="10">
         <v>0</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>10</v>
       </c>
-      <c r="B4" s="15">
-        <v>13</v>
+      <c r="B4" s="8">
+        <v>109</v>
       </c>
       <c r="C4" s="6">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D4" s="6">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="E4" s="6">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="36">
         <v>10</v>
       </c>
       <c r="H4" s="8">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I4" s="6">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="J4" s="6">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="K4" s="6">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="L4" s="11">
         <v>0</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="37">
         <v>20</v>
       </c>
-      <c r="B5" s="15">
-        <v>13</v>
+      <c r="B5" s="8">
+        <v>110</v>
       </c>
       <c r="C5" s="6">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="D5" s="6">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="E5" s="6">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="36">
         <v>20</v>
       </c>
-      <c r="H5" s="17">
-        <v>17</v>
-      </c>
-      <c r="I5" s="18">
-        <v>141</v>
-      </c>
-      <c r="J5" s="18">
-        <v>180</v>
-      </c>
-      <c r="K5" s="18">
-        <v>180</v>
-      </c>
-      <c r="L5" s="19">
+      <c r="H5" s="14">
+        <v>105</v>
+      </c>
+      <c r="I5" s="15">
+        <v>112</v>
+      </c>
+      <c r="J5" s="15">
+        <v>116</v>
+      </c>
+      <c r="K5" s="15">
+        <v>117</v>
+      </c>
+      <c r="L5" s="16">
         <v>0</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
+      <c r="M5" s="40">
+        <v>20</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
-        <v>100</v>
-      </c>
-      <c r="B6" s="15">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="B6" s="8">
+        <v>109</v>
       </c>
       <c r="C6" s="6">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="D6" s="6">
-        <v>65</v>
+        <v>322</v>
       </c>
       <c r="E6" s="6">
-        <v>67</v>
+        <v>324</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="36">
+        <v>50</v>
+      </c>
+      <c r="H6" s="14">
+        <v>108</v>
+      </c>
+      <c r="I6" s="15">
+        <v>126</v>
+      </c>
+      <c r="J6" s="15">
+        <v>133</v>
+      </c>
+      <c r="K6" s="15">
+        <v>134</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>100</v>
       </c>
-      <c r="H6" s="17">
-        <v>19</v>
-      </c>
-      <c r="I6" s="18">
-        <v>384</v>
-      </c>
-      <c r="J6" s="18">
-        <v>571</v>
-      </c>
-      <c r="K6" s="18">
-        <v>572</v>
-      </c>
-      <c r="L6" s="20">
-        <v>0</v>
-      </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>500</v>
-      </c>
-      <c r="B7" s="15">
-        <v>17</v>
+      <c r="B7" s="8">
+        <v>106</v>
       </c>
       <c r="C7" s="6">
-        <v>135</v>
+        <v>325</v>
       </c>
       <c r="D7" s="6">
-        <v>273</v>
+        <v>549</v>
       </c>
       <c r="E7" s="6">
-        <v>294</v>
+        <v>553</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="36">
+        <v>100</v>
+      </c>
+      <c r="H7" s="14">
+        <v>105</v>
+      </c>
+      <c r="I7" s="15">
+        <v>146</v>
+      </c>
+      <c r="J7" s="15">
+        <v>170</v>
+      </c>
+      <c r="K7" s="15">
+        <v>174</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>500</v>
       </c>
-      <c r="H7" s="17">
-        <v>31</v>
-      </c>
-      <c r="I7" s="18">
-        <v>640</v>
-      </c>
-      <c r="J7" s="18">
-        <v>891</v>
-      </c>
-      <c r="K7" s="18">
-        <v>917</v>
-      </c>
-      <c r="L7" s="19">
-        <v>0</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="39">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="15">
-        <v>17</v>
+      <c r="B8" s="8">
+        <v>104</v>
       </c>
       <c r="C8" s="6">
-        <v>267</v>
+        <v>1307</v>
       </c>
       <c r="D8" s="6">
-        <v>552</v>
+        <v>2538</v>
       </c>
       <c r="E8" s="6">
-        <v>585</v>
+        <v>2564</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="36">
+        <v>500</v>
+      </c>
+      <c r="H8" s="14">
+        <v>105</v>
+      </c>
+      <c r="I8" s="15">
+        <v>347</v>
+      </c>
+      <c r="J8" s="15">
+        <v>488</v>
+      </c>
+      <c r="K8" s="15">
+        <v>518</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="37">
         <v>1000</v>
       </c>
-      <c r="H8" s="17">
-        <v>31</v>
-      </c>
-      <c r="I8" s="18">
-        <v>1094</v>
-      </c>
-      <c r="J8" s="18">
-        <v>1632</v>
-      </c>
-      <c r="K8" s="18">
-        <v>1717</v>
-      </c>
-      <c r="L8" s="20">
+      <c r="B9" s="8">
+        <v>106</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2538</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4999</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5119</v>
+      </c>
+      <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
+      <c r="G9" s="36">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="14">
+        <v>105</v>
+      </c>
+      <c r="I9" s="15">
+        <v>486</v>
+      </c>
+      <c r="J9" s="15">
+        <v>802</v>
+      </c>
+      <c r="K9" s="15">
+        <v>817</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0</v>
+      </c>
+      <c r="M9" s="40">
+        <v>100</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>1500</v>
+      </c>
+      <c r="B10" s="8">
+        <v>106</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3847</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7697</v>
+      </c>
+      <c r="E10" s="6">
+        <v>7779</v>
+      </c>
+      <c r="F10" s="22">
+        <v>353</v>
+      </c>
+      <c r="G10" s="36">
+        <v>1500</v>
+      </c>
+      <c r="H10" s="14">
+        <v>105</v>
+      </c>
+      <c r="I10" s="15">
+        <v>677</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1183</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1193</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>2000</v>
       </c>
-      <c r="B9" s="15">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1703</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2729</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2809</v>
-      </c>
-      <c r="F9" s="36">
-        <v>2942</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="B11" s="8">
+        <v>105</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7812</v>
+      </c>
+      <c r="D11" s="6">
+        <v>66086</v>
+      </c>
+      <c r="E11" s="6">
+        <v>66285</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1503</v>
+      </c>
+      <c r="G11" s="36">
         <v>2000</v>
       </c>
-      <c r="H9" s="17">
-        <v>35</v>
-      </c>
-      <c r="I9" s="18">
-        <v>2219</v>
-      </c>
-      <c r="J9" s="18">
-        <v>3357</v>
-      </c>
-      <c r="K9" s="18">
-        <v>3457</v>
-      </c>
-      <c r="L9" s="20">
+      <c r="H11" s="14">
+        <v>110</v>
+      </c>
+      <c r="I11" s="15">
+        <v>960</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1580</v>
+      </c>
+      <c r="K11" s="15">
+        <v>1636</v>
+      </c>
+      <c r="L11" s="17">
         <v>0</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>3000</v>
+      </c>
+      <c r="B12" s="8">
+        <v>113</v>
+      </c>
+      <c r="C12" s="6">
+        <v>9320</v>
+      </c>
+      <c r="D12" s="6">
+        <v>71217</v>
+      </c>
+      <c r="E12" s="6">
+        <v>71475</v>
+      </c>
+      <c r="F12" s="22">
+        <v>5452</v>
+      </c>
+      <c r="G12" s="36">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="14">
+        <v>107</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1408</v>
+      </c>
+      <c r="J12" s="15">
+        <v>2391</v>
+      </c>
+      <c r="K12" s="15">
+        <v>2497</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>5000</v>
       </c>
-      <c r="B10" s="16">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7">
-        <v>16846</v>
-      </c>
-      <c r="D10" s="7">
-        <v>24516</v>
-      </c>
-      <c r="E10" s="7">
-        <v>25877</v>
-      </c>
-      <c r="F10" s="37">
-        <v>17583</v>
-      </c>
-      <c r="G10" s="32">
+      <c r="B13" s="8">
+        <v>115</v>
+      </c>
+      <c r="C13" s="6">
+        <v>13581</v>
+      </c>
+      <c r="D13" s="6">
+        <v>80584</v>
+      </c>
+      <c r="E13" s="6">
+        <v>81077</v>
+      </c>
+      <c r="F13" s="22">
+        <v>17673</v>
+      </c>
+      <c r="G13" s="36">
         <v>5000</v>
       </c>
-      <c r="H10" s="33">
-        <v>55</v>
-      </c>
-      <c r="I10" s="34">
-        <v>5858</v>
-      </c>
-      <c r="J10" s="34">
-        <v>8580</v>
-      </c>
-      <c r="K10" s="34">
-        <v>9137</v>
-      </c>
-      <c r="L10" s="35">
+      <c r="H13" s="14">
+        <v>103</v>
+      </c>
+      <c r="I13" s="15">
+        <v>2262</v>
+      </c>
+      <c r="J13" s="15">
+        <v>3738</v>
+      </c>
+      <c r="K13" s="15">
+        <v>4223</v>
+      </c>
+      <c r="L13" s="17">
         <v>0</v>
       </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
     </row>
-    <row r="27" ht="2.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="7">
+        <v>106</v>
+      </c>
+      <c r="C14" s="34">
+        <v>26757</v>
+      </c>
+      <c r="D14" s="34">
+        <v>108667</v>
+      </c>
+      <c r="E14" s="34">
+        <v>109975</v>
+      </c>
+      <c r="F14" s="23">
+        <v>37506</v>
+      </c>
+      <c r="G14" s="38">
+        <v>10000</v>
+      </c>
+      <c r="H14" s="21">
+        <v>103</v>
+      </c>
+      <c r="I14" s="34">
+        <v>5883</v>
+      </c>
+      <c r="J14" s="34">
+        <v>9345</v>
+      </c>
+      <c r="K14" s="34">
+        <v>9725</v>
+      </c>
+      <c r="L14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="2.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="N9:Q9"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="N5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
